--- a/참고자료/매입매출테이블명세(2018-12-17)..xlsx
+++ b/참고자료/매입매출테이블명세(2018-12-17)..xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="매입매출장" sheetId="1" r:id="rId1"/>
     <sheet name="매입장" sheetId="4" r:id="rId2"/>
-    <sheet name="테이블명세" sheetId="2" r:id="rId3"/>
+    <sheet name="상품매입매출" sheetId="2" r:id="rId3"/>
+    <sheet name="거래처정보" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="255">
   <si>
     <t>매입/매출 관리대장</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -914,6 +915,109 @@
   </si>
   <si>
     <t>NOTNULL</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래처정보</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_dept</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래처코드</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래처명</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표자명</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>팩스</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업자번호</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(4)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열</t>
+  </si>
+  <si>
+    <t>문자열</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(14)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(4)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(50)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_code</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_name</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_ceo</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_tel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_addr</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_fax</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_sid</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(20)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(14)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1401,15 +1505,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1420,6 +1515,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1761,12 +1865,12 @@
   <sheetData>
     <row r="1" spans="1:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:20" ht="21" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
       <c r="I2" s="10"/>
@@ -16834,7 +16938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D4" sqref="D4:G12"/>
     </sheetView>
   </sheetViews>
@@ -16886,7 +16990,7 @@
       <c r="A4" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="46" t="s">
         <v>208</v>
       </c>
       <c r="C4" s="29" t="s">
@@ -16905,7 +17009,7 @@
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="31"/>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="43" t="s">
         <v>200</v>
       </c>
       <c r="C5" s="37" t="s">
@@ -16924,7 +17028,7 @@
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="31"/>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="44" t="s">
         <v>201</v>
       </c>
       <c r="C6" s="37" t="s">
@@ -16943,7 +17047,7 @@
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="31"/>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="44" t="s">
         <v>202</v>
       </c>
       <c r="C7" s="37" t="s">
@@ -16962,7 +17066,7 @@
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="31"/>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="44" t="s">
         <v>203</v>
       </c>
       <c r="C8" s="37" t="s">
@@ -16979,7 +17083,7 @@
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="31"/>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="44" t="s">
         <v>204</v>
       </c>
       <c r="C9" s="37" t="s">
@@ -16996,7 +17100,7 @@
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="31"/>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="44" t="s">
         <v>205</v>
       </c>
       <c r="C10" s="37" t="s">
@@ -17013,7 +17117,7 @@
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="31"/>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="44" t="s">
         <v>206</v>
       </c>
       <c r="C11" s="37" t="s">
@@ -17030,7 +17134,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="31"/>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="45" t="s">
         <v>207</v>
       </c>
       <c r="C12" s="37" t="s">
@@ -17130,4 +17234,290 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="28"/>
+      <c r="B4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="G5" s="38"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="G6" s="38"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="31"/>
+      <c r="B7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="31"/>
+      <c r="B8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="31"/>
+      <c r="B9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="31"/>
+      <c r="B10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="31"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="31"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="31"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="31"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="31"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="31"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="31"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="31"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="31"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
 </file>